--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657DAE1-3B64-4ED9-9201-6A6868251BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="1410" yWindow="2970" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Key</t>
   </si>
@@ -51,12 +55,21 @@
   </si>
   <si>
     <t>ShouldStopMasterAssetName</t>
+  </si>
+  <si>
+    <t>RutaExcel</t>
+  </si>
+  <si>
+    <t>Data/ProductData.xlsx</t>
+  </si>
+  <si>
+    <t>Ruta para almacenar el archivo excel con los datos de los productos, ese archivo se va limpiar en caso de que se ejecute nuevamente el bot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -416,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -472,12 +485,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -490,6 +509,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657DAE1-3B64-4ED9-9201-6A6868251BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3912E2B-0967-4E3F-B2C8-349FFDED62FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2970" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Key</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Exceptions_Screenshots</t>
   </si>
   <si>
-    <t>QueueName</t>
-  </si>
-  <si>
-    <t>TestQueue</t>
-  </si>
-  <si>
     <t>DummyShouldStopMasterAssetName</t>
   </si>
   <si>
@@ -64,13 +58,40 @@
   </si>
   <si>
     <t>Ruta para almacenar el archivo excel con los datos de los productos, ese archivo se va limpiar en caso de que se ejecute nuevamente el bot</t>
+  </si>
+  <si>
+    <t>UrlBaseMercadolibre</t>
+  </si>
+  <si>
+    <t>https://listado.mercadolibre.com.co/</t>
+  </si>
+  <si>
+    <t>Url para acceder a mercadolibre Colombia, a esta se le va a adicionar el endpoint del producto que se quiera buscar</t>
+  </si>
+  <si>
+    <t>UrlGoogleFinances</t>
+  </si>
+  <si>
+    <t>https://www.google.com/finance/quote/USD-COP</t>
+  </si>
+  <si>
+    <t>Url para acceder a la conversion de dolares a pesos colombianos, que se actualiza inmediatamente, basandonos en google finances</t>
+  </si>
+  <si>
+    <t>RutaPlantilla</t>
+  </si>
+  <si>
+    <t>Data\TemplateCopy.docx</t>
+  </si>
+  <si>
+    <t>Ruta para almacenar el archivo docx con la plantilla del informe a enviar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +106,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,10 +446,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +537,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -486,10 +551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,13 +576,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3912E2B-0967-4E3F-B2C8-349FFDED62FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3104A4-D778-47C2-9A7C-D5F60F0EF178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Ruta para almacenar el archivo docx con la plantilla del informe a enviar</t>
+  </si>
+  <si>
+    <t>RutaPDF</t>
+  </si>
+  <si>
+    <t>Data\PdfFinal.pdf</t>
+  </si>
+  <si>
+    <t>Ruta para almacenar el achivo pdf con el informe listo para enviar</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +495,17 @@
       </c>
       <c r="C5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3104A4-D778-47C2-9A7C-D5F60F0EF178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9355FF98-1329-4E59-BDAB-B255088E3330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,10 @@
     <t>RutaPDF</t>
   </si>
   <si>
-    <t>Data\PdfFinal.pdf</t>
-  </si>
-  <si>
     <t>Ruta para almacenar el achivo pdf con el informe listo para enviar</t>
+  </si>
+  <si>
+    <t>Data\Enviar\PdfFinal.pdf</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +502,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
